--- a/DataBackups/9.xlsx
+++ b/DataBackups/9.xlsx
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -481,14 +481,14 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -577,14 +577,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -595,7 +595,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -647,14 +647,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -673,14 +673,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -689,24 +689,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -717,7 +717,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -769,14 +769,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -795,14 +795,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -811,24 +811,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -837,24 +837,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mitch</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -865,7 +865,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -917,14 +917,14 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E21" t="n">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -943,14 +943,14 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -959,24 +959,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -985,24 +985,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mitch</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1011,24 +1011,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1091,14 +1091,14 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E28" t="n">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1117,14 +1117,14 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1133,24 +1133,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1159,24 +1159,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mitch</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1185,24 +1185,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1211,17 +1211,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1291,14 +1291,14 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E36" t="n">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1317,14 +1317,14 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1333,24 +1333,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1359,24 +1359,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Mitch</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1385,24 +1385,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1411,17 +1411,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1437,17 +1437,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2023-02-07</t>
+          <t>2023-02-08</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1517,14 +1517,14 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Jasper</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E45" t="n">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1543,14 +1543,14 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SamM</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1559,24 +1559,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Michael</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1585,24 +1585,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mitch</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1611,24 +1611,24 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Alex</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -1637,17 +1637,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Rudy</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1663,17 +1663,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Wet Willies</t>
+          <t>5 Musketeers</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Michael</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1689,17 +1689,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Loose Gooses</t>
+          <t>Wet Willies</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>5 Musketeers</t>
+          <t>Loose Gooses</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Angus</t>
+          <t>Nick</t>
         </is>
       </c>
       <c r="E52" t="n">
